--- a/templates/Add_DMM.xlsx
+++ b/templates/Add_DMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EVM Gov\EVM-Backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B2117A-F35C-477D-BB5C-6CE0C92503B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42024FB-922C-433D-8138-3DB979D3CE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6BCA05A7-2C7C-41F2-B3DF-31BAD72F3277}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>DMM No.</t>
   </si>
   <si>
-    <t>DMM Box No.</t>
+    <t>Warehouse</t>
   </si>
 </sst>
 </file>
@@ -413,13 +413,13 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
   </cols>
@@ -429,10 +429,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
